--- a/Data/Disbursement Data.xlsx
+++ b/Data/Disbursement Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\CascadeProjects\advanced_loan_management_system\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB012F-392C-423D-8271-8656D4A8B470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1CD60-4011-4EEA-9261-47097F1F1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5403AF13-C5AB-4F1A-9C0F-44AFD72CA43F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="4490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8749" uniqueCount="4491">
   <si>
     <t>Unique ID</t>
   </si>
@@ -13512,6 +13512,9 @@
   </si>
   <si>
     <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -13975,8 +13978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C08C24-417B-4CB1-B24F-DD522533604D}">
   <dimension ref="A1:M1246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
+      <selection activeCell="C1245" sqref="C1245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21865,8 +21868,8 @@
         <f t="shared" si="8"/>
         <v>17640</v>
       </c>
-      <c r="M179" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M179" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -23845,8 +23848,8 @@
         <f t="shared" si="11"/>
         <v>22050</v>
       </c>
-      <c r="M224" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M224" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -38673,8 +38676,8 @@
         <f t="shared" si="26"/>
         <v>35280</v>
       </c>
-      <c r="M561" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M561" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="562" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -39465,8 +39468,8 @@
         <f t="shared" si="29"/>
         <v>22050</v>
       </c>
-      <c r="M579" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M579" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="580" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -44965,8 +44968,8 @@
         <f t="shared" si="32"/>
         <v>17640</v>
       </c>
-      <c r="M704" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M704" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="705" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -45009,8 +45012,8 @@
         <f t="shared" si="32"/>
         <v>17640</v>
       </c>
-      <c r="M705" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M705" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="706" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -45053,8 +45056,8 @@
         <f t="shared" ref="L706:L769" si="35">I706-J706-K706</f>
         <v>17640</v>
       </c>
-      <c r="M706" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M706" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="707" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -46901,8 +46904,8 @@
         <f t="shared" si="35"/>
         <v>22050</v>
       </c>
-      <c r="M748" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M748" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="749" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -46945,8 +46948,8 @@
         <f t="shared" si="35"/>
         <v>17640</v>
       </c>
-      <c r="M749" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M749" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="750" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -46989,8 +46992,8 @@
         <f t="shared" si="35"/>
         <v>30870</v>
       </c>
-      <c r="M750" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M750" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="751" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -47033,8 +47036,8 @@
         <f t="shared" si="35"/>
         <v>22050</v>
       </c>
-      <c r="M751" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M751" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="752" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -47077,8 +47080,8 @@
         <f t="shared" si="35"/>
         <v>22050</v>
       </c>
-      <c r="M752" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M752" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="753" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -47121,8 +47124,8 @@
         <f t="shared" si="35"/>
         <v>35280</v>
       </c>
-      <c r="M753" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M753" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="754" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -48045,8 +48048,8 @@
         <f t="shared" si="38"/>
         <v>22050</v>
       </c>
-      <c r="M774" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M774" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="775" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -48089,8 +48092,8 @@
         <f t="shared" si="38"/>
         <v>22050</v>
       </c>
-      <c r="M775" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M775" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="776" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51081,8 +51084,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M843" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M843" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="844" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51125,8 +51128,8 @@
         <f t="shared" si="41"/>
         <v>30870</v>
       </c>
-      <c r="M844" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M844" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="845" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51169,8 +51172,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M845" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M845" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="846" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51213,8 +51216,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M846" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M846" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="847" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51257,8 +51260,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M847" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M847" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="848" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51301,8 +51304,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M848" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M848" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="849" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51345,8 +51348,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M849" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M849" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="850" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51389,8 +51392,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M850" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M850" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="851" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51433,8 +51436,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M851" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M851" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="852" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51477,8 +51480,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M852" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M852" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="853" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51521,8 +51524,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M853" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M853" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="854" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51565,8 +51568,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M854" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M854" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="855" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51609,8 +51612,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M855" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M855" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="856" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51653,8 +51656,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M856" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M856" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="857" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -51697,8 +51700,8 @@
         <f t="shared" si="41"/>
         <v>26460</v>
       </c>
-      <c r="M857" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M857" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="858" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53015,8 +53018,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M887" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M887" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="888" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53059,8 +53062,8 @@
         <f t="shared" si="41"/>
         <v>17640</v>
       </c>
-      <c r="M888" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M888" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="889" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53103,8 +53106,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M889" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M889" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="890" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53147,8 +53150,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M890" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M890" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="891" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53191,8 +53194,8 @@
         <f t="shared" si="41"/>
         <v>30870</v>
       </c>
-      <c r="M891" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M891" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="892" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53235,8 +53238,8 @@
         <f t="shared" si="41"/>
         <v>26460</v>
       </c>
-      <c r="M892" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M892" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="893" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53279,8 +53282,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M893" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M893" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="894" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53323,8 +53326,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M894" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M894" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="895" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53367,8 +53370,8 @@
         <f t="shared" si="41"/>
         <v>20286</v>
       </c>
-      <c r="M895" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M895" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="896" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53411,8 +53414,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M896" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M896" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="897" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53455,8 +53458,8 @@
         <f t="shared" si="41"/>
         <v>22050</v>
       </c>
-      <c r="M897" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M897" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="898" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53499,8 +53502,8 @@
         <f t="shared" ref="L898:L961" si="44">I898-J898-K898</f>
         <v>22050</v>
       </c>
-      <c r="M898" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M898" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="899" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53543,8 +53546,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M899" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M899" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="900" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53587,8 +53590,8 @@
         <f t="shared" si="44"/>
         <v>17640</v>
       </c>
-      <c r="M900" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M900" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="901" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53631,8 +53634,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M901" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M901" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="902" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53675,8 +53678,8 @@
         <f t="shared" si="44"/>
         <v>17640</v>
       </c>
-      <c r="M902" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M902" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="903" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53719,8 +53722,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M903" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M903" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="904" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53763,8 +53766,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M904" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M904" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="905" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53807,8 +53810,8 @@
         <f t="shared" si="44"/>
         <v>30870</v>
       </c>
-      <c r="M905" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M905" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="906" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53851,8 +53854,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M906" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M906" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="907" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53895,8 +53898,8 @@
         <f t="shared" si="44"/>
         <v>20286</v>
       </c>
-      <c r="M907" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M907" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="908" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53939,8 +53942,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M908" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M908" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="909" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -53983,8 +53986,8 @@
         <f t="shared" si="44"/>
         <v>44100</v>
       </c>
-      <c r="M909" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M909" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="910" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54027,8 +54030,8 @@
         <f t="shared" si="44"/>
         <v>35280</v>
       </c>
-      <c r="M910" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M910" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="911" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54071,8 +54074,8 @@
         <f t="shared" si="44"/>
         <v>44100</v>
       </c>
-      <c r="M911" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M911" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="912" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54115,8 +54118,8 @@
         <f t="shared" si="44"/>
         <v>26460</v>
       </c>
-      <c r="M912" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M912" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="913" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54159,8 +54162,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M913" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M913" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="914" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54203,8 +54206,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M914" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M914" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="915" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54247,8 +54250,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M915" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M915" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="916" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54291,8 +54294,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M916" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M916" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="917" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54335,8 +54338,8 @@
         <f t="shared" si="44"/>
         <v>20286</v>
       </c>
-      <c r="M917" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M917" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="918" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54379,8 +54382,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M918" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M918" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="919" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54423,8 +54426,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M919" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M919" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="920" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54467,8 +54470,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M920" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M920" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="921" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54511,8 +54514,8 @@
         <f t="shared" si="44"/>
         <v>30870</v>
       </c>
-      <c r="M921" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M921" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="922" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54555,8 +54558,8 @@
         <f t="shared" si="44"/>
         <v>20286</v>
       </c>
-      <c r="M922" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M922" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="923" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54599,8 +54602,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M923" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M923" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="924" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54643,8 +54646,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M924" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M924" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="925" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54687,8 +54690,8 @@
         <f t="shared" si="44"/>
         <v>30870</v>
       </c>
-      <c r="M925" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M925" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="926" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54731,8 +54734,8 @@
         <f t="shared" si="44"/>
         <v>35280</v>
       </c>
-      <c r="M926" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M926" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="927" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54775,8 +54778,8 @@
         <f t="shared" si="44"/>
         <v>35280</v>
       </c>
-      <c r="M927" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M927" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="928" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54819,8 +54822,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M928" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M928" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="929" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54863,8 +54866,8 @@
         <f t="shared" si="44"/>
         <v>17640</v>
       </c>
-      <c r="M929" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M929" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="930" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54907,8 +54910,8 @@
         <f t="shared" si="44"/>
         <v>20286</v>
       </c>
-      <c r="M930" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M930" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="931" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54951,8 +54954,8 @@
         <f t="shared" si="44"/>
         <v>17640</v>
       </c>
-      <c r="M931" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M931" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="932" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -54995,8 +54998,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M932" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M932" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="933" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55039,8 +55042,8 @@
         <f t="shared" si="44"/>
         <v>26460</v>
       </c>
-      <c r="M933" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M933" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="934" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55083,8 +55086,8 @@
         <f t="shared" si="44"/>
         <v>30870</v>
       </c>
-      <c r="M934" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M934" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="935" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55127,8 +55130,8 @@
         <f t="shared" si="44"/>
         <v>35280</v>
       </c>
-      <c r="M935" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M935" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="936" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55171,8 +55174,8 @@
         <f t="shared" si="44"/>
         <v>17640</v>
       </c>
-      <c r="M936" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M936" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="937" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55215,8 +55218,8 @@
         <f t="shared" si="44"/>
         <v>26460</v>
       </c>
-      <c r="M937" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M937" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="938" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55259,8 +55262,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M938" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M938" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="939" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55303,8 +55306,8 @@
         <f t="shared" si="44"/>
         <v>35280</v>
       </c>
-      <c r="M939" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M939" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="940" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55347,8 +55350,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M940" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M940" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="941" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55391,8 +55394,8 @@
         <f t="shared" si="44"/>
         <v>35280</v>
       </c>
-      <c r="M941" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M941" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="942" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55435,8 +55438,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M942" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M942" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="943" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55479,8 +55482,8 @@
         <f t="shared" si="44"/>
         <v>26460</v>
       </c>
-      <c r="M943" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M943" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="944" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55523,8 +55526,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M944" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M944" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="945" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55567,8 +55570,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M945" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M945" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="946" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55611,8 +55614,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M946" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M946" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="947" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55655,8 +55658,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M947" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M947" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="948" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55699,8 +55702,8 @@
         <f t="shared" si="44"/>
         <v>20286</v>
       </c>
-      <c r="M948" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M948" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="949" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55743,8 +55746,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M949" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M949" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="950" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55787,8 +55790,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M950" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M950" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="951" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55831,8 +55834,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M951" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M951" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="952" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55875,8 +55878,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M952" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M952" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="953" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55919,8 +55922,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M953" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M953" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="954" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -55963,8 +55966,8 @@
         <f t="shared" si="44"/>
         <v>26460</v>
       </c>
-      <c r="M954" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M954" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="955" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56007,8 +56010,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M955" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M955" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="956" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56051,8 +56054,8 @@
         <f t="shared" si="44"/>
         <v>26460</v>
       </c>
-      <c r="M956" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M956" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="957" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56095,8 +56098,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M957" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M957" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="958" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56139,8 +56142,8 @@
         <f t="shared" si="44"/>
         <v>30870</v>
       </c>
-      <c r="M958" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M958" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="959" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56183,8 +56186,8 @@
         <f t="shared" si="44"/>
         <v>17640</v>
       </c>
-      <c r="M959" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M959" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="960" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56227,8 +56230,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M960" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M960" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="961" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56271,8 +56274,8 @@
         <f t="shared" si="44"/>
         <v>22050</v>
       </c>
-      <c r="M961" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M961" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="962" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56315,8 +56318,8 @@
         <f t="shared" ref="L962:L1025" si="47">I962-J962-K962</f>
         <v>17640</v>
       </c>
-      <c r="M962" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M962" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="963" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56359,8 +56362,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M963" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M963" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="964" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56403,8 +56406,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M964" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M964" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="965" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56447,8 +56450,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M965" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M965" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="966" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56491,8 +56494,8 @@
         <f t="shared" si="47"/>
         <v>20286</v>
       </c>
-      <c r="M966" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M966" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="967" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56535,8 +56538,8 @@
         <f t="shared" si="47"/>
         <v>26460</v>
       </c>
-      <c r="M967" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M967" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="968" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56579,8 +56582,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M968" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M968" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="969" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56623,8 +56626,8 @@
         <f t="shared" si="47"/>
         <v>20286</v>
       </c>
-      <c r="M969" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M969" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="970" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56667,8 +56670,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M970" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M970" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="971" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56711,8 +56714,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M971" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M971" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="972" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56755,8 +56758,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M972" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M972" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="973" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56799,8 +56802,8 @@
         <f t="shared" si="47"/>
         <v>44100</v>
       </c>
-      <c r="M973" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M973" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="974" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56843,8 +56846,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M974" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M974" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="975" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56887,8 +56890,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M975" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M975" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="976" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56931,8 +56934,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M976" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M976" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="977" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -56975,8 +56978,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M977" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M977" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="978" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57019,8 +57022,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M978" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M978" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="979" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57063,8 +57066,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M979" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M979" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="980" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57107,8 +57110,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M980" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M980" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="981" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57151,8 +57154,8 @@
         <f t="shared" si="47"/>
         <v>44100</v>
       </c>
-      <c r="M981" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M981" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="982" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57195,8 +57198,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M982" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M982" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="983" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57239,8 +57242,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M983" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M983" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="984" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57327,8 +57330,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M985" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M985" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="986" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57371,8 +57374,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M986" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M986" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="987" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57415,8 +57418,8 @@
         <f t="shared" si="47"/>
         <v>26460</v>
       </c>
-      <c r="M987" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M987" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="988" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57503,8 +57506,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M989" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M989" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="990" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57547,8 +57550,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M990" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M990" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="991" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57591,8 +57594,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M991" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M991" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="992" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57635,8 +57638,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M992" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M992" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="993" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57679,8 +57682,8 @@
         <f t="shared" si="47"/>
         <v>30870</v>
       </c>
-      <c r="M993" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M993" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="994" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57723,8 +57726,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M994" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M994" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="995" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57767,8 +57770,8 @@
         <f t="shared" si="47"/>
         <v>26460</v>
       </c>
-      <c r="M995" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M995" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="996" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57811,8 +57814,8 @@
         <f t="shared" si="47"/>
         <v>20286</v>
       </c>
-      <c r="M996" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M996" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="997" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57855,8 +57858,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M997" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M997" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="998" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57899,8 +57902,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M998" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M998" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="999" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57943,8 +57946,8 @@
         <f t="shared" si="47"/>
         <v>30870</v>
       </c>
-      <c r="M999" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M999" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1000" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -57987,8 +57990,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1000" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1000" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1001" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58031,8 +58034,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1001" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1001" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1002" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58075,8 +58078,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1002" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1002" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1003" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58119,8 +58122,8 @@
         <f t="shared" si="47"/>
         <v>26460</v>
       </c>
-      <c r="M1003" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1003" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1004" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58163,8 +58166,8 @@
         <f t="shared" si="47"/>
         <v>35280</v>
       </c>
-      <c r="M1004" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1004" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1005" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58207,8 +58210,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1005" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1005" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1006" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58251,8 +58254,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1006" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1006" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1007" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58295,8 +58298,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1007" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1007" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1008" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58339,8 +58342,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1008" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1008" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1009" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58383,8 +58386,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1009" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1009" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1010" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58427,8 +58430,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1010" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1010" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1011" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58471,8 +58474,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1011" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1011" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1012" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58557,8 +58560,8 @@
         <f t="shared" si="47"/>
         <v>264600</v>
       </c>
-      <c r="M1013" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1013" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1014" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58599,8 +58602,8 @@
         <f t="shared" si="47"/>
         <v>441000</v>
       </c>
-      <c r="M1014" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1014" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1015" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58643,8 +58646,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M1015" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1015" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1016" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58687,8 +58690,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1016" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1016" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1017" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58731,8 +58734,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M1017" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1017" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1018" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58775,8 +58778,8 @@
         <f t="shared" si="47"/>
         <v>30870</v>
       </c>
-      <c r="M1018" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1018" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1019" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58819,8 +58822,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1019" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1019" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1020" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58863,8 +58866,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1020" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1020" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1021" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58907,8 +58910,8 @@
         <f t="shared" si="47"/>
         <v>20286</v>
       </c>
-      <c r="M1021" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1021" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1022" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58951,8 +58954,8 @@
         <f t="shared" si="47"/>
         <v>30870</v>
       </c>
-      <c r="M1022" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1022" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1023" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -58995,8 +58998,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M1023" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1023" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1024" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59039,8 +59042,8 @@
         <f t="shared" si="47"/>
         <v>22050</v>
       </c>
-      <c r="M1024" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1024" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1025" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59083,8 +59086,8 @@
         <f t="shared" si="47"/>
         <v>17640</v>
       </c>
-      <c r="M1025" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1025" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1026" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59127,8 +59130,8 @@
         <f t="shared" ref="L1026:L1089" si="50">I1026-J1026-K1026</f>
         <v>22050</v>
       </c>
-      <c r="M1026" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1026" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1027" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59171,8 +59174,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1027" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1027" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1028" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59215,8 +59218,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1028" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1028" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1029" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59259,8 +59262,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1029" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1029" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1030" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59303,8 +59306,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1030" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1030" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1031" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59347,8 +59350,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1031" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1031" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1032" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59391,8 +59394,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1032" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1032" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1033" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59435,8 +59438,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1033" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1033" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1034" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59479,8 +59482,8 @@
         <f t="shared" si="50"/>
         <v>35280</v>
       </c>
-      <c r="M1034" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1034" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1035" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59523,8 +59526,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1035" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1035" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1036" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59567,8 +59570,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1036" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1036" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1037" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59611,8 +59614,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1037" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1037" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1038" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59655,8 +59658,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1038" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1038" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1039" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59699,8 +59702,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1039" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1039" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1040" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59743,8 +59746,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1040" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1040" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1041" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59787,8 +59790,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1041" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1041" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1042" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59831,8 +59834,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1042" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1042" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1043" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59875,8 +59878,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1043" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1043" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1044" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59919,8 +59922,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1044" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1044" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1045" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -59963,8 +59966,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1045" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1045" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1046" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60007,8 +60010,8 @@
         <f t="shared" si="50"/>
         <v>20286</v>
       </c>
-      <c r="M1046" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1046" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1047" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60051,8 +60054,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1047" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1047" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1048" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60095,8 +60098,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1048" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1048" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1049" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60139,8 +60142,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1049" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1049" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1050" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60183,8 +60186,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1050" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1050" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1051" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60227,8 +60230,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1051" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1051" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1052" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60271,8 +60274,8 @@
         <f t="shared" si="50"/>
         <v>30870</v>
       </c>
-      <c r="M1052" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1052" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1053" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60315,8 +60318,8 @@
         <f t="shared" si="50"/>
         <v>35280</v>
       </c>
-      <c r="M1053" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1053" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1054" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60359,8 +60362,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1054" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1054" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1055" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60403,8 +60406,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1055" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1055" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1056" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60447,8 +60450,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1056" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1056" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1057" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60491,8 +60494,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1057" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1057" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1058" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60535,8 +60538,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1058" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1058" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1059" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60579,8 +60582,8 @@
         <f t="shared" si="50"/>
         <v>20286</v>
       </c>
-      <c r="M1059" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1059" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1060" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60623,8 +60626,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1060" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1060" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1061" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60667,8 +60670,8 @@
         <f t="shared" si="50"/>
         <v>30870</v>
       </c>
-      <c r="M1061" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1061" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1062" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60711,8 +60714,8 @@
         <f t="shared" si="50"/>
         <v>44100</v>
       </c>
-      <c r="M1062" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1062" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1063" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60755,8 +60758,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1063" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1063" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1064" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60799,8 +60802,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1064" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1064" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1065" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60843,8 +60846,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1065" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1065" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1066" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60887,8 +60890,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1066" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1066" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1067" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60931,8 +60934,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1067" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1067" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1068" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -60975,8 +60978,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1068" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1068" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1069" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61019,8 +61022,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1069" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1069" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1070" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61063,8 +61066,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1070" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1070" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1071" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61107,8 +61110,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1071" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1071" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1072" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61151,8 +61154,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1072" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1072" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1073" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61195,8 +61198,8 @@
         <f t="shared" si="50"/>
         <v>19404</v>
       </c>
-      <c r="M1073" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1073" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1074" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61239,8 +61242,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1074" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1074" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1075" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61283,8 +61286,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1075" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1075" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1076" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61327,8 +61330,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1076" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1076" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1077" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61371,8 +61374,8 @@
         <f t="shared" si="50"/>
         <v>17640</v>
       </c>
-      <c r="M1077" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1077" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1078" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61415,8 +61418,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1078" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1078" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1079" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61459,8 +61462,8 @@
         <f t="shared" si="50"/>
         <v>26460</v>
       </c>
-      <c r="M1079" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1079" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1080" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61503,8 +61506,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1080" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1080" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1081" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61547,8 +61550,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1081" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1081" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1082" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61591,8 +61594,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1082" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1082" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1083" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61635,8 +61638,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1083" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1083" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1084" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61679,8 +61682,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1084" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1084" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1085" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61723,8 +61726,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1085" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1085" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1086" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61767,8 +61770,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1086" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1086" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1087" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61811,8 +61814,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1087" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1087" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1088" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61855,8 +61858,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1088" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1088" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1089" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61899,8 +61902,8 @@
         <f t="shared" si="50"/>
         <v>22050</v>
       </c>
-      <c r="M1089" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1089" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1090" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61943,8 +61946,8 @@
         <f t="shared" ref="L1090:L1153" si="53">I1090-J1090-K1090</f>
         <v>22050</v>
       </c>
-      <c r="M1090" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1090" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1091" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -61987,8 +61990,8 @@
         <f t="shared" si="53"/>
         <v>20286</v>
       </c>
-      <c r="M1091" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1091" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1092" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62031,8 +62034,8 @@
         <f t="shared" si="53"/>
         <v>26460</v>
       </c>
-      <c r="M1092" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1092" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1093" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62075,8 +62078,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1093" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1093" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1094" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62163,8 +62166,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1095" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1095" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1096" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62207,8 +62210,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1096" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1096" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1097" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62251,8 +62254,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1097" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1097" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1098" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62295,8 +62298,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1098" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1098" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1099" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62339,8 +62342,8 @@
         <f t="shared" si="53"/>
         <v>26460</v>
       </c>
-      <c r="M1099" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1099" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1100" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62383,8 +62386,8 @@
         <f t="shared" si="53"/>
         <v>20286</v>
       </c>
-      <c r="M1100" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1100" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1101" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62427,8 +62430,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1101" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1101" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1102" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62471,8 +62474,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1102" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1102" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1103" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62515,8 +62518,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1103" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1103" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1104" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62559,8 +62562,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1104" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1104" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1105" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62691,8 +62694,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1107" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1107" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1108" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62735,8 +62738,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1108" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1108" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1109" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62779,8 +62782,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1109" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1109" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1110" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62823,8 +62826,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1110" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1110" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1111" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62867,8 +62870,8 @@
         <f t="shared" si="53"/>
         <v>39690</v>
       </c>
-      <c r="M1111" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1111" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1112" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62911,8 +62914,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1112" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1112" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1113" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62955,8 +62958,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1113" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1113" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1114" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -62999,8 +63002,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1114" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1114" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1115" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63043,8 +63046,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1115" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1115" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1116" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63131,8 +63134,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1117" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1117" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1118" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63175,8 +63178,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1118" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1118" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1119" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63219,8 +63222,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1119" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1119" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1120" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63263,8 +63266,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1120" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1120" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1121" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63307,8 +63310,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1121" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1121" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1122" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63351,8 +63354,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1122" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1122" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1123" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63395,8 +63398,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1123" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1123" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1124" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63439,8 +63442,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1124" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1124" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1125" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63483,8 +63486,8 @@
         <f t="shared" si="53"/>
         <v>44100</v>
       </c>
-      <c r="M1125" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1125" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1126" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63527,8 +63530,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1126" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1126" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1127" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63615,8 +63618,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1128" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1128" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1129" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63659,8 +63662,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1129" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1129" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1130" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63703,8 +63706,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1130" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1130" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1131" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63747,8 +63750,8 @@
         <f t="shared" si="53"/>
         <v>20286</v>
       </c>
-      <c r="M1131" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1131" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1132" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63791,8 +63794,8 @@
         <f t="shared" si="53"/>
         <v>44100</v>
       </c>
-      <c r="M1132" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1132" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1133" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63835,8 +63838,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1133" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1133" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1134" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63879,8 +63882,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1134" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1134" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1135" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63923,8 +63926,8 @@
         <f t="shared" si="53"/>
         <v>20286</v>
       </c>
-      <c r="M1135" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1135" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1136" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -63967,8 +63970,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1136" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1136" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1137" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64011,8 +64014,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1137" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1137" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1138" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64055,8 +64058,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1138" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1138" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1139" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64143,8 +64146,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1140" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1140" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1141" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64187,8 +64190,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1141" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1141" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1142" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64231,8 +64234,8 @@
         <f t="shared" si="53"/>
         <v>17640</v>
       </c>
-      <c r="M1142" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1142" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1143" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64275,8 +64278,8 @@
         <f t="shared" si="53"/>
         <v>88200</v>
       </c>
-      <c r="M1143" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1143" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1144" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64319,8 +64322,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1144" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1144" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1145" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64363,8 +64366,8 @@
         <f t="shared" si="53"/>
         <v>20286</v>
       </c>
-      <c r="M1145" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1145" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1146" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64407,8 +64410,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1146" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1146" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1147" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64451,8 +64454,8 @@
         <f t="shared" si="53"/>
         <v>44100</v>
       </c>
-      <c r="M1147" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1147" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1148" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64495,8 +64498,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1148" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1148" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1149" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64583,8 +64586,8 @@
         <f t="shared" si="53"/>
         <v>44100</v>
       </c>
-      <c r="M1150" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1150" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1151" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64627,8 +64630,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1151" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1151" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1152" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64671,8 +64674,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1152" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1152" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1153" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64715,8 +64718,8 @@
         <f t="shared" si="53"/>
         <v>22050</v>
       </c>
-      <c r="M1153" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1153" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1154" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64759,8 +64762,8 @@
         <f t="shared" ref="L1154:L1217" si="56">I1154-J1154-K1154</f>
         <v>20286</v>
       </c>
-      <c r="M1154" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1154" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1155" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64847,8 +64850,8 @@
         <f t="shared" si="56"/>
         <v>35280</v>
       </c>
-      <c r="M1156" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1156" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1157" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64891,8 +64894,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1157" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1157" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1158" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64935,8 +64938,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1158" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1158" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1159" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -64979,8 +64982,8 @@
         <f t="shared" si="56"/>
         <v>26460</v>
       </c>
-      <c r="M1159" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1159" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1160" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65023,8 +65026,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1160" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1160" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1161" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65067,8 +65070,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1161" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1161" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1162" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65111,8 +65114,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1162" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1162" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1163" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65155,8 +65158,8 @@
         <f t="shared" si="56"/>
         <v>20286</v>
       </c>
-      <c r="M1163" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1163" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1164" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65243,8 +65246,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1165" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1165" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1166" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65287,8 +65290,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1166" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1166" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1167" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65331,8 +65334,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1167" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1167" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1168" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65375,8 +65378,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1168" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1168" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1169" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65419,8 +65422,8 @@
         <f t="shared" si="56"/>
         <v>35280</v>
       </c>
-      <c r="M1169" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1169" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1170" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65463,8 +65466,8 @@
         <f t="shared" si="56"/>
         <v>44100</v>
       </c>
-      <c r="M1170" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1170" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1171" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65507,8 +65510,8 @@
         <f t="shared" si="56"/>
         <v>20286</v>
       </c>
-      <c r="M1171" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1171" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1172" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65551,8 +65554,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1172" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1172" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1173" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65595,8 +65598,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1173" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1173" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1174" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65639,8 +65642,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1174" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1174" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1175" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65683,8 +65686,8 @@
         <f t="shared" si="56"/>
         <v>20286</v>
       </c>
-      <c r="M1175" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1175" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1176" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65727,8 +65730,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1176" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1176" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1177" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65771,8 +65774,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1177" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1177" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1178" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65815,8 +65818,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1178" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1178" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1179" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65903,8 +65906,8 @@
         <f t="shared" si="56"/>
         <v>20286</v>
       </c>
-      <c r="M1180" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1180" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1181" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -65991,8 +65994,8 @@
         <f t="shared" si="56"/>
         <v>35280</v>
       </c>
-      <c r="M1182" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1182" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1183" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66035,8 +66038,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1183" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1183" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1184" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66079,8 +66082,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1184" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1184" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1185" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66123,8 +66126,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1185" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1185" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1186" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66167,8 +66170,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1186" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1186" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1187" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66211,8 +66214,8 @@
         <f t="shared" si="56"/>
         <v>26460</v>
       </c>
-      <c r="M1187" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1187" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1188" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66255,8 +66258,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1188" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1188" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1189" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66299,8 +66302,8 @@
         <f t="shared" si="56"/>
         <v>26460</v>
       </c>
-      <c r="M1189" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1189" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1190" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66343,8 +66346,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1190" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1190" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1191" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66431,8 +66434,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1192" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1192" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1193" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66475,8 +66478,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1193" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1193" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1194" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66519,8 +66522,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1194" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1194" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1195" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66563,8 +66566,8 @@
         <f t="shared" si="56"/>
         <v>20286</v>
       </c>
-      <c r="M1195" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1195" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1196" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66607,8 +66610,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1196" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1196" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1197" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66651,8 +66654,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1197" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1197" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1198" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66695,8 +66698,8 @@
         <f t="shared" si="56"/>
         <v>30870</v>
       </c>
-      <c r="M1198" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1198" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1199" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66739,8 +66742,8 @@
         <f t="shared" si="56"/>
         <v>26460</v>
       </c>
-      <c r="M1199" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1199" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1200" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66783,8 +66786,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1200" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1200" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1201" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66827,8 +66830,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1201" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1201" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1202" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66871,8 +66874,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1202" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1202" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1203" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -66959,8 +66962,8 @@
         <f t="shared" si="56"/>
         <v>26460</v>
       </c>
-      <c r="M1204" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1204" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1205" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67003,8 +67006,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1205" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1205" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1206" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67091,8 +67094,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1207" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1207" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1208" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67135,8 +67138,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1208" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1208" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1209" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67179,8 +67182,8 @@
         <f t="shared" si="56"/>
         <v>30870</v>
       </c>
-      <c r="M1209" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1209" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1210" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67223,8 +67226,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1210" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1210" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1211" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67267,8 +67270,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1211" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1211" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1212" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67311,8 +67314,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1212" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1212" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1213" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67355,8 +67358,8 @@
         <f t="shared" si="56"/>
         <v>35280</v>
       </c>
-      <c r="M1213" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1213" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1214" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67399,8 +67402,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1214" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1214" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1215" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67443,8 +67446,8 @@
         <f t="shared" si="56"/>
         <v>17640</v>
       </c>
-      <c r="M1215" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1215" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1216" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67487,8 +67490,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1216" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1216" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1217" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67531,8 +67534,8 @@
         <f t="shared" si="56"/>
         <v>22050</v>
       </c>
-      <c r="M1217" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1217" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1218" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67619,8 +67622,8 @@
         <f t="shared" si="59"/>
         <v>17640</v>
       </c>
-      <c r="M1219" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1219" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1220" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67663,8 +67666,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1220" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1220" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1221" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67707,8 +67710,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1221" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1221" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1222" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67751,8 +67754,8 @@
         <f t="shared" si="59"/>
         <v>30870</v>
       </c>
-      <c r="M1222" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1222" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1223" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67795,8 +67798,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1223" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1223" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1224" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67839,8 +67842,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1224" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1224" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1225" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67883,8 +67886,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1225" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1225" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1226" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67927,8 +67930,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1226" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1226" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1227" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -67971,8 +67974,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1227" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1227" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1228" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68059,8 +68062,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1229" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1229" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1230" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68103,8 +68106,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1230" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1230" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1231" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68147,8 +68150,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1231" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1231" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1232" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68191,8 +68194,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1232" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1232" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1233" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68235,8 +68238,8 @@
         <f t="shared" si="59"/>
         <v>17640</v>
       </c>
-      <c r="M1233" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1233" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1234" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68279,8 +68282,8 @@
         <f t="shared" si="59"/>
         <v>17640</v>
       </c>
-      <c r="M1234" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1234" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1235" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68323,8 +68326,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1235" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1235" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1236" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68367,8 +68370,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1236" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1236" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1237" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68411,8 +68414,8 @@
         <f t="shared" si="59"/>
         <v>20286</v>
       </c>
-      <c r="M1237" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1237" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1238" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68455,8 +68458,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1238" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1238" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1239" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68499,8 +68502,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1239" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1239" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1240" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68543,8 +68546,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1240" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1240" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1241" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68631,8 +68634,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1242" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1242" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1243" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68675,8 +68678,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1243" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1243" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1244" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68686,8 +68689,8 @@
       <c r="B1244" s="3" t="s">
         <v>3627</v>
       </c>
-      <c r="C1244" s="3" t="e">
-        <v>#N/A</v>
+      <c r="C1244" s="3" t="s">
+        <v>4490</v>
       </c>
       <c r="D1244" s="3" t="s">
         <v>4489</v>
@@ -68763,8 +68766,8 @@
         <f t="shared" si="59"/>
         <v>22050</v>
       </c>
-      <c r="M1245" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1245" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="1246" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -68774,8 +68777,8 @@
       <c r="B1246" s="3" t="s">
         <v>3633</v>
       </c>
-      <c r="C1246" s="3" t="e">
-        <v>#N/A</v>
+      <c r="C1246" s="3" t="s">
+        <v>4490</v>
       </c>
       <c r="D1246" s="3" t="s">
         <v>4489</v>
@@ -68807,8 +68810,8 @@
         <f t="shared" si="59"/>
         <v>26460</v>
       </c>
-      <c r="M1246" s="6" t="e">
-        <v>#N/A</v>
+      <c r="M1246" s="6" t="s">
+        <v>4490</v>
       </c>
     </row>
   </sheetData>
